--- a/data/Lumaco.xlsx
+++ b/data/Lumaco.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS DE LA ARAUCANIA S.A.</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F16" t="n">
